--- a/MukeshE2EFramework/TestData/Data.xlsx
+++ b/MukeshE2EFramework/TestData/Data.xlsx
@@ -21,30 +21,23 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Selenium_50</t>
+    <t>Abcd@123</t>
   </si>
   <si>
-    <t>Abcd@123456</t>
+    <t>srinuamujuri123@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,19 +57,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -357,9 +344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -369,10 +354,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
